--- a/excel/exceldemo-2.xlsx
+++ b/excel/exceldemo-2.xlsx
@@ -3015,7 +3015,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
